--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam9-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam9-Itgav.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.385801000000001</v>
+        <v>15.8244615</v>
       </c>
       <c r="H2">
-        <v>18.771602</v>
+        <v>31.648923</v>
       </c>
       <c r="I2">
-        <v>0.06848010139180623</v>
+        <v>0.100035857885554</v>
       </c>
       <c r="J2">
-        <v>0.04853166157087636</v>
+        <v>0.07244496157537267</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N2">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O2">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P2">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q2">
-        <v>140.687666296415</v>
+        <v>325.5778828668331</v>
       </c>
       <c r="R2">
-        <v>562.7506651856601</v>
+        <v>1302.311531467332</v>
       </c>
       <c r="S2">
-        <v>0.003798896823896307</v>
+        <v>0.007444960519711909</v>
       </c>
       <c r="T2">
-        <v>0.001889721533713569</v>
+        <v>0.003836518040058671</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.385801000000001</v>
+        <v>15.8244615</v>
       </c>
       <c r="H3">
-        <v>18.771602</v>
+        <v>31.648923</v>
       </c>
       <c r="I3">
-        <v>0.06848010139180623</v>
+        <v>0.100035857885554</v>
       </c>
       <c r="J3">
-        <v>0.04853166157087636</v>
+        <v>0.07244496157537267</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>174.766479</v>
       </c>
       <c r="O3">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P3">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q3">
-        <v>546.7744644548931</v>
+        <v>921.8618061420196</v>
       </c>
       <c r="R3">
-        <v>3280.646786729358</v>
+        <v>5531.170836852118</v>
       </c>
       <c r="S3">
-        <v>0.01476419242059904</v>
+        <v>0.02108013201303611</v>
       </c>
       <c r="T3">
-        <v>0.01101643989233737</v>
+        <v>0.01629443968319946</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.385801000000001</v>
+        <v>15.8244615</v>
       </c>
       <c r="H4">
-        <v>18.771602</v>
+        <v>31.648923</v>
       </c>
       <c r="I4">
-        <v>0.06848010139180623</v>
+        <v>0.100035857885554</v>
       </c>
       <c r="J4">
-        <v>0.04853166157087636</v>
+        <v>0.07244496157537267</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N4">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O4">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P4">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q4">
-        <v>752.543359357517</v>
+        <v>942.1214844133935</v>
       </c>
       <c r="R4">
-        <v>4515.260156145102</v>
+        <v>5652.728906480362</v>
       </c>
       <c r="S4">
-        <v>0.02032043499594518</v>
+        <v>0.02154340827598219</v>
       </c>
       <c r="T4">
-        <v>0.01516228211755425</v>
+        <v>0.01665254119407068</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.385801000000001</v>
+        <v>15.8244615</v>
       </c>
       <c r="H5">
-        <v>18.771602</v>
+        <v>31.648923</v>
       </c>
       <c r="I5">
-        <v>0.06848010139180623</v>
+        <v>0.100035857885554</v>
       </c>
       <c r="J5">
-        <v>0.04853166157087636</v>
+        <v>0.07244496157537267</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N5">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O5">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P5">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q5">
-        <v>241.295409384958</v>
+        <v>502.7468447789911</v>
       </c>
       <c r="R5">
-        <v>965.1816375398321</v>
+        <v>2010.987379115964</v>
       </c>
       <c r="S5">
-        <v>0.006515541756176208</v>
+        <v>0.01149626743018119</v>
       </c>
       <c r="T5">
-        <v>0.003241088171441264</v>
+        <v>0.005924227169835388</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.385801000000001</v>
+        <v>15.8244615</v>
       </c>
       <c r="H6">
-        <v>18.771602</v>
+        <v>31.648923</v>
       </c>
       <c r="I6">
-        <v>0.06848010139180623</v>
+        <v>0.100035857885554</v>
       </c>
       <c r="J6">
-        <v>0.04853166157087636</v>
+        <v>0.07244496157537267</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N6">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O6">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P6">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q6">
-        <v>110.058015155612</v>
+        <v>497.9243454116866</v>
       </c>
       <c r="R6">
-        <v>660.348090933672</v>
+        <v>2987.54607247012</v>
       </c>
       <c r="S6">
-        <v>0.002971824433693375</v>
+        <v>0.0113859917656312</v>
       </c>
       <c r="T6">
-        <v>0.002217454521839283</v>
+        <v>0.008801100294047081</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.385801000000001</v>
+        <v>15.8244615</v>
       </c>
       <c r="H7">
-        <v>18.771602</v>
+        <v>31.648923</v>
       </c>
       <c r="I7">
-        <v>0.06848010139180623</v>
+        <v>0.100035857885554</v>
       </c>
       <c r="J7">
-        <v>0.04853166157087636</v>
+        <v>0.07244496157537267</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N7">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O7">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P7">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q7">
-        <v>744.7209262012846</v>
+        <v>1184.466835249498</v>
       </c>
       <c r="R7">
-        <v>4468.325557207707</v>
+        <v>7106.801011496991</v>
       </c>
       <c r="S7">
-        <v>0.02010921096149611</v>
+        <v>0.02708509788101136</v>
       </c>
       <c r="T7">
-        <v>0.01500467533399062</v>
+        <v>0.02093613519416138</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>109.339678</v>
       </c>
       <c r="I8">
-        <v>0.2659191345021217</v>
+        <v>0.2304004360519152</v>
       </c>
       <c r="J8">
-        <v>0.2826842508681249</v>
+        <v>0.25028051575005</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N8">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O8">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P8">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q8">
-        <v>546.3126031694567</v>
+        <v>749.8639764472921</v>
       </c>
       <c r="R8">
-        <v>3277.875619016741</v>
+        <v>4499.183858683753</v>
       </c>
       <c r="S8">
-        <v>0.01475172108308586</v>
+        <v>0.0171470729235244</v>
       </c>
       <c r="T8">
-        <v>0.01100713428752153</v>
+        <v>0.01325427873615814</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>109.339678</v>
       </c>
       <c r="I9">
-        <v>0.2659191345021217</v>
+        <v>0.2304004360519152</v>
       </c>
       <c r="J9">
-        <v>0.2826842508681249</v>
+        <v>0.25028051575005</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>174.766479</v>
       </c>
       <c r="O9">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P9">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q9">
         <v>2123.212282117085</v>
@@ -1013,10 +1013,10 @@
         <v>19108.91053905376</v>
       </c>
       <c r="S9">
-        <v>0.05733170936248416</v>
+        <v>0.04855130660639668</v>
       </c>
       <c r="T9">
-        <v>0.06416788458089633</v>
+        <v>0.05629350446305712</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>109.339678</v>
       </c>
       <c r="I10">
-        <v>0.2659191345021217</v>
+        <v>0.2304004360519152</v>
       </c>
       <c r="J10">
-        <v>0.2826842508681249</v>
+        <v>0.25028051575005</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N10">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O10">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P10">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q10">
-        <v>2922.245655722908</v>
+        <v>2169.873937314127</v>
       </c>
       <c r="R10">
-        <v>26300.21090150618</v>
+        <v>19528.86543582715</v>
       </c>
       <c r="S10">
-        <v>0.07890748373621592</v>
+        <v>0.04961831452986942</v>
       </c>
       <c r="T10">
-        <v>0.08831633253669771</v>
+        <v>0.05753066200835409</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>109.339678</v>
       </c>
       <c r="I11">
-        <v>0.2659191345021217</v>
+        <v>0.2304004360519152</v>
       </c>
       <c r="J11">
-        <v>0.2826842508681249</v>
+        <v>0.25028051575005</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N11">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O11">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P11">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q11">
-        <v>936.9884845214414</v>
+        <v>1157.915718514884</v>
       </c>
       <c r="R11">
-        <v>5621.930907128648</v>
+        <v>6947.494311089305</v>
       </c>
       <c r="S11">
-        <v>0.02530088579603243</v>
+        <v>0.02647795585372471</v>
       </c>
       <c r="T11">
-        <v>0.01887849193878053</v>
+        <v>0.02046682887593529</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>109.339678</v>
       </c>
       <c r="I12">
-        <v>0.2659191345021217</v>
+        <v>0.2304004360519152</v>
       </c>
       <c r="J12">
-        <v>0.2826842508681249</v>
+        <v>0.25028051575005</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N12">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O12">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P12">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q12">
-        <v>427.3727921013786</v>
+        <v>1146.808641706904</v>
       </c>
       <c r="R12">
-        <v>3846.355128912408</v>
+        <v>10321.27777536214</v>
       </c>
       <c r="S12">
-        <v>0.01154006733691193</v>
+        <v>0.02622397131522753</v>
       </c>
       <c r="T12">
-        <v>0.01291609333063588</v>
+        <v>0.03040575732061445</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>109.339678</v>
       </c>
       <c r="I13">
-        <v>0.2659191345021217</v>
+        <v>0.2304004360519152</v>
       </c>
       <c r="J13">
-        <v>0.2826842508681249</v>
+        <v>0.25028051575005</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N13">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O13">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P13">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q13">
-        <v>2891.869902586904</v>
+        <v>2728.038536368925</v>
       </c>
       <c r="R13">
-        <v>26026.82912328214</v>
+        <v>24552.34682732033</v>
       </c>
       <c r="S13">
-        <v>0.07808726718739137</v>
+        <v>0.06238181482317243</v>
       </c>
       <c r="T13">
-        <v>0.0873983141935929</v>
+        <v>0.07232948434593089</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.10635633333334</v>
+        <v>37.63036233333333</v>
       </c>
       <c r="H14">
-        <v>105.319069</v>
+        <v>112.891087</v>
       </c>
       <c r="I14">
-        <v>0.2561408281726349</v>
+        <v>0.2378839607628503</v>
       </c>
       <c r="J14">
-        <v>0.2722894622242564</v>
+        <v>0.2584097556784808</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N14">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O14">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P14">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q14">
-        <v>526.2237442182118</v>
+        <v>774.219944229918</v>
       </c>
       <c r="R14">
-        <v>3157.342465309271</v>
+        <v>4645.319665379508</v>
       </c>
       <c r="S14">
-        <v>0.01420927479426338</v>
+        <v>0.01770401867476632</v>
       </c>
       <c r="T14">
-        <v>0.01060238292927611</v>
+        <v>0.01368478452923447</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.10635633333334</v>
+        <v>37.63036233333333</v>
       </c>
       <c r="H15">
-        <v>105.319069</v>
+        <v>112.891087</v>
       </c>
       <c r="I15">
-        <v>0.2561408281726349</v>
+        <v>0.2378839607628503</v>
       </c>
       <c r="J15">
-        <v>0.2722894622242564</v>
+        <v>0.2584097556784808</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>174.766479</v>
       </c>
       <c r="O15">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P15">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q15">
-        <v>2045.138095632006</v>
+        <v>2192.175309496964</v>
       </c>
       <c r="R15">
-        <v>18406.24286068805</v>
+        <v>19729.57778547267</v>
       </c>
       <c r="S15">
-        <v>0.05522352328708537</v>
+        <v>0.05012827802608311</v>
       </c>
       <c r="T15">
-        <v>0.06180832052349245</v>
+        <v>0.05812194645272204</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.10635633333334</v>
+        <v>37.63036233333333</v>
       </c>
       <c r="H16">
-        <v>105.319069</v>
+        <v>112.891087</v>
       </c>
       <c r="I16">
-        <v>0.2561408281726349</v>
+        <v>0.2378839607628503</v>
       </c>
       <c r="J16">
-        <v>0.2722894622242564</v>
+        <v>0.2584097556784808</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N16">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O16">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P16">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q16">
-        <v>2814.789630622758</v>
+        <v>2240.352559263634</v>
       </c>
       <c r="R16">
-        <v>25333.10667560482</v>
+        <v>20163.17303337271</v>
       </c>
       <c r="S16">
-        <v>0.07600591913423141</v>
+        <v>0.05122994291591798</v>
       </c>
       <c r="T16">
-        <v>0.0850687882971396</v>
+        <v>0.0593992875116451</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.10635633333334</v>
+        <v>37.63036233333333</v>
       </c>
       <c r="H17">
-        <v>105.319069</v>
+        <v>112.891087</v>
       </c>
       <c r="I17">
-        <v>0.2561408281726349</v>
+        <v>0.2378839607628503</v>
       </c>
       <c r="J17">
-        <v>0.2722894622242564</v>
+        <v>0.2584097556784808</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N17">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O17">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P17">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q17">
-        <v>902.5337979641674</v>
+        <v>1195.525416834786</v>
       </c>
       <c r="R17">
-        <v>5415.202787785005</v>
+        <v>7173.152501008716</v>
       </c>
       <c r="S17">
-        <v>0.02437052848201602</v>
+        <v>0.02733797348356005</v>
       </c>
       <c r="T17">
-        <v>0.01818429715072301</v>
+        <v>0.02113160200862603</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>35.10635633333334</v>
+        <v>37.63036233333333</v>
       </c>
       <c r="H18">
-        <v>105.319069</v>
+        <v>112.891087</v>
       </c>
       <c r="I18">
-        <v>0.2561408281726349</v>
+        <v>0.2378839607628503</v>
       </c>
       <c r="J18">
-        <v>0.2722894622242564</v>
+        <v>0.2584097556784808</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N18">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O18">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P18">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q18">
-        <v>411.6575556409427</v>
+        <v>1184.057576457157</v>
       </c>
       <c r="R18">
-        <v>3704.918000768484</v>
+        <v>10656.51818811441</v>
       </c>
       <c r="S18">
-        <v>0.01111571910903994</v>
+        <v>0.02707573939656979</v>
       </c>
       <c r="T18">
-        <v>0.01244114624793097</v>
+        <v>0.03139335196306663</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>35.10635633333334</v>
+        <v>37.63036233333333</v>
       </c>
       <c r="H19">
-        <v>105.319069</v>
+        <v>112.891087</v>
       </c>
       <c r="I19">
-        <v>0.2561408281726349</v>
+        <v>0.2378839607628503</v>
       </c>
       <c r="J19">
-        <v>0.2722894622242564</v>
+        <v>0.2584097556784808</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N19">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O19">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P19">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q19">
-        <v>2785.530846446918</v>
+        <v>2816.646631688242</v>
       </c>
       <c r="R19">
-        <v>25069.77761802226</v>
+        <v>25349.81968519418</v>
       </c>
       <c r="S19">
-        <v>0.07521586336599882</v>
+        <v>0.06440800826595308</v>
       </c>
       <c r="T19">
-        <v>0.08418452707569424</v>
+        <v>0.07467878321318655</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.999783</v>
+        <v>21.870697</v>
       </c>
       <c r="H20">
-        <v>29.999566</v>
+        <v>43.741394</v>
       </c>
       <c r="I20">
-        <v>0.1094404900226514</v>
+        <v>0.1382577180872797</v>
       </c>
       <c r="J20">
-        <v>0.07756017756956327</v>
+        <v>0.1001248480898777</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N20">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O20">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P20">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q20">
-        <v>224.837972296945</v>
+        <v>449.975199856374</v>
       </c>
       <c r="R20">
-        <v>899.3518891877801</v>
+        <v>1799.900799425496</v>
       </c>
       <c r="S20">
-        <v>0.006071152371314268</v>
+        <v>0.01028954291453025</v>
       </c>
       <c r="T20">
-        <v>0.003020031314975751</v>
+        <v>0.005302380974490478</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.999783</v>
+        <v>21.870697</v>
       </c>
       <c r="H21">
-        <v>29.999566</v>
+        <v>43.741394</v>
       </c>
       <c r="I21">
-        <v>0.1094404900226514</v>
+        <v>0.1382577180872797</v>
       </c>
       <c r="J21">
-        <v>0.07756017756956327</v>
+        <v>0.1001248480898777</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>174.766479</v>
       </c>
       <c r="O21">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P21">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q21">
-        <v>873.8197535580191</v>
+        <v>1274.088235988621</v>
       </c>
       <c r="R21">
-        <v>5242.918521348114</v>
+        <v>7644.529415931726</v>
       </c>
       <c r="S21">
-        <v>0.02359518196467519</v>
+        <v>0.02913446248879387</v>
       </c>
       <c r="T21">
-        <v>0.01760576511451755</v>
+        <v>0.0225202451973504</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.999783</v>
+        <v>21.870697</v>
       </c>
       <c r="H22">
-        <v>29.999566</v>
+        <v>43.741394</v>
       </c>
       <c r="I22">
-        <v>0.1094404900226514</v>
+        <v>0.1382577180872797</v>
       </c>
       <c r="J22">
-        <v>0.07756017756956327</v>
+        <v>0.1001248480898777</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N22">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O22">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P22">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q22">
-        <v>1202.666356175011</v>
+        <v>1302.088764460993</v>
       </c>
       <c r="R22">
-        <v>7215.998137050065</v>
+        <v>7812.532586765958</v>
       </c>
       <c r="S22">
-        <v>0.03247481119669846</v>
+        <v>0.02977474808550666</v>
       </c>
       <c r="T22">
-        <v>0.02423138329356165</v>
+        <v>0.02301517070489496</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.999783</v>
+        <v>21.870697</v>
       </c>
       <c r="H23">
-        <v>29.999566</v>
+        <v>43.741394</v>
       </c>
       <c r="I23">
-        <v>0.1094404900226514</v>
+        <v>0.1382577180872797</v>
       </c>
       <c r="J23">
-        <v>0.07756017756956327</v>
+        <v>0.1001248480898777</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N23">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O23">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P23">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q23">
-        <v>385.622791242914</v>
+        <v>694.837161433098</v>
       </c>
       <c r="R23">
-        <v>1542.491164971656</v>
+        <v>2779.348645732392</v>
       </c>
       <c r="S23">
-        <v>0.01041271943333148</v>
+        <v>0.01588877963376267</v>
       </c>
       <c r="T23">
-        <v>0.005179698488758259</v>
+        <v>0.008187765339796068</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.999783</v>
+        <v>21.870697</v>
       </c>
       <c r="H24">
-        <v>29.999566</v>
+        <v>43.741394</v>
       </c>
       <c r="I24">
-        <v>0.1094404900226514</v>
+        <v>0.1382577180872797</v>
       </c>
       <c r="J24">
-        <v>0.07756017756956327</v>
+        <v>0.1001248480898777</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N24">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O24">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P24">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q24">
-        <v>175.887635455396</v>
+        <v>688.1720738125804</v>
       </c>
       <c r="R24">
-        <v>1055.325812732376</v>
+        <v>4129.032442875482</v>
       </c>
       <c r="S24">
-        <v>0.004749378515429691</v>
+        <v>0.01573636966734161</v>
       </c>
       <c r="T24">
-        <v>0.003543793080628708</v>
+        <v>0.01216383873774881</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.999783</v>
+        <v>21.870697</v>
       </c>
       <c r="H25">
-        <v>29.999566</v>
+        <v>43.741394</v>
       </c>
       <c r="I25">
-        <v>0.1094404900226514</v>
+        <v>0.1382577180872797</v>
       </c>
       <c r="J25">
-        <v>0.07756017756956327</v>
+        <v>0.1001248480898777</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N25">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O25">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P25">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q25">
-        <v>1190.1650470299</v>
+        <v>1637.029813639516</v>
       </c>
       <c r="R25">
-        <v>7140.990282179399</v>
+        <v>9822.178881837097</v>
       </c>
       <c r="S25">
-        <v>0.03213724654120229</v>
+        <v>0.03743381529734465</v>
       </c>
       <c r="T25">
-        <v>0.02397950627712135</v>
+        <v>0.02893544713559697</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>9.533863</v>
+        <v>13.66505466666667</v>
       </c>
       <c r="H26">
-        <v>28.601589</v>
+        <v>40.995164</v>
       </c>
       <c r="I26">
-        <v>0.0695603822087843</v>
+        <v>0.08638495955347313</v>
       </c>
       <c r="J26">
-        <v>0.07394588047079305</v>
+        <v>0.09383867756751472</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N26">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O26">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P26">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q26">
-        <v>142.907029060145</v>
+        <v>281.149508160696</v>
       </c>
       <c r="R26">
-        <v>857.4421743608701</v>
+        <v>1686.897048964176</v>
       </c>
       <c r="S26">
-        <v>0.003858824821681445</v>
+        <v>0.006429020822796296</v>
       </c>
       <c r="T26">
-        <v>0.00287929813511522</v>
+        <v>0.004969479885339662</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>9.533863</v>
+        <v>13.66505466666667</v>
       </c>
       <c r="H27">
-        <v>28.601589</v>
+        <v>40.995164</v>
       </c>
       <c r="I27">
-        <v>0.0695603822087843</v>
+        <v>0.08638495955347313</v>
       </c>
       <c r="J27">
-        <v>0.07394588047079305</v>
+        <v>0.09383867756751472</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>174.766479</v>
       </c>
       <c r="O27">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P27">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q27">
-        <v>555.399889259459</v>
+        <v>796.0644964786175</v>
       </c>
       <c r="R27">
-        <v>4998.599003335131</v>
+        <v>7164.580468307557</v>
       </c>
       <c r="S27">
-        <v>0.01499709911211943</v>
+        <v>0.01820353611013484</v>
       </c>
       <c r="T27">
-        <v>0.01678533808908998</v>
+        <v>0.02110634940408146</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>9.533863</v>
+        <v>13.66505466666667</v>
       </c>
       <c r="H28">
-        <v>28.601589</v>
+        <v>40.995164</v>
       </c>
       <c r="I28">
-        <v>0.0695603822087843</v>
+        <v>0.08638495955347313</v>
       </c>
       <c r="J28">
-        <v>0.07394588047079305</v>
+        <v>0.09383867756751472</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N28">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O28">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P28">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q28">
-        <v>764.414810166371</v>
+        <v>813.5595380070387</v>
       </c>
       <c r="R28">
-        <v>6879.733291497339</v>
+        <v>7322.035842063348</v>
       </c>
       <c r="S28">
-        <v>0.02064099199969687</v>
+        <v>0.01860359367031957</v>
       </c>
       <c r="T28">
-        <v>0.02310220307400169</v>
+        <v>0.02157020184439399</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>9.533863</v>
+        <v>13.66505466666667</v>
       </c>
       <c r="H29">
-        <v>28.601589</v>
+        <v>40.995164</v>
       </c>
       <c r="I29">
-        <v>0.0695603822087843</v>
+        <v>0.08638495955347313</v>
       </c>
       <c r="J29">
-        <v>0.07394588047079305</v>
+        <v>0.09383867756751472</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N29">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O29">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P29">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q29">
-        <v>245.101869899554</v>
+        <v>434.1419843827921</v>
       </c>
       <c r="R29">
-        <v>1470.611219397324</v>
+        <v>2604.851906296753</v>
       </c>
       <c r="S29">
-        <v>0.006618325114091314</v>
+        <v>0.009927486183087208</v>
       </c>
       <c r="T29">
-        <v>0.004938325018414761</v>
+        <v>0.007673710236542885</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>9.533863</v>
+        <v>13.66505466666667</v>
       </c>
       <c r="H30">
-        <v>28.601589</v>
+        <v>40.995164</v>
       </c>
       <c r="I30">
-        <v>0.0695603822087843</v>
+        <v>0.08638495955347313</v>
       </c>
       <c r="J30">
-        <v>0.07394588047079305</v>
+        <v>0.09383867756751472</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N30">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O30">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P30">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q30">
-        <v>111.794191944356</v>
+        <v>429.9775635281437</v>
       </c>
       <c r="R30">
-        <v>1006.147727499204</v>
+        <v>3869.798071753293</v>
       </c>
       <c r="S30">
-        <v>0.003018705277353017</v>
+        <v>0.009832258741415431</v>
       </c>
       <c r="T30">
-        <v>0.003378652650947889</v>
+        <v>0.0114001525402589</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>9.533863</v>
+        <v>13.66505466666667</v>
       </c>
       <c r="H31">
-        <v>28.601589</v>
+        <v>40.995164</v>
       </c>
       <c r="I31">
-        <v>0.0695603822087843</v>
+        <v>0.08638495955347313</v>
       </c>
       <c r="J31">
-        <v>0.07394588047079305</v>
+        <v>0.09383867756751472</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N31">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O31">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P31">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q31">
-        <v>756.4689773026465</v>
+        <v>1022.834429755354</v>
       </c>
       <c r="R31">
-        <v>6808.220795723818</v>
+        <v>9205.509867798188</v>
       </c>
       <c r="S31">
-        <v>0.02042643588384222</v>
+        <v>0.02338906402571979</v>
       </c>
       <c r="T31">
-        <v>0.02286206350322351</v>
+        <v>0.02711878365689782</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>31.58644433333333</v>
+        <v>32.75075733333333</v>
       </c>
       <c r="H32">
-        <v>94.75933299999998</v>
+        <v>98.25227199999999</v>
       </c>
       <c r="I32">
-        <v>0.2304590637020015</v>
+        <v>0.2070370676589277</v>
       </c>
       <c r="J32">
-        <v>0.244988567296386</v>
+        <v>0.2249012413387041</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N32">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O32">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P32">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q32">
-        <v>473.4623224867316</v>
+        <v>673.825282135008</v>
       </c>
       <c r="R32">
-        <v>2840.77393492039</v>
+        <v>4042.951692810048</v>
       </c>
       <c r="S32">
-        <v>0.01278459271148808</v>
+        <v>0.01540830285677221</v>
       </c>
       <c r="T32">
-        <v>0.009539343104037408</v>
+        <v>0.01191025091137387</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>31.58644433333333</v>
+        <v>32.75075733333333</v>
       </c>
       <c r="H33">
-        <v>94.75933299999998</v>
+        <v>98.25227199999999</v>
       </c>
       <c r="I33">
-        <v>0.2304590637020015</v>
+        <v>0.2070370676589277</v>
       </c>
       <c r="J33">
-        <v>0.244988567296386</v>
+        <v>0.2249012413387041</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>174.766479</v>
       </c>
       <c r="O33">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P33">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q33">
-        <v>1840.083886755389</v>
+        <v>1907.911514576699</v>
       </c>
       <c r="R33">
-        <v>16560.75498079851</v>
+        <v>17171.20363119029</v>
       </c>
       <c r="S33">
-        <v>0.04968657890998045</v>
+        <v>0.04362804308466212</v>
       </c>
       <c r="T33">
-        <v>0.0556111564816088</v>
+        <v>0.05058515639983412</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>31.58644433333333</v>
+        <v>32.75075733333333</v>
       </c>
       <c r="H34">
-        <v>94.75933299999998</v>
+        <v>98.25227199999999</v>
       </c>
       <c r="I34">
-        <v>0.2304590637020015</v>
+        <v>0.2070370676589277</v>
       </c>
       <c r="J34">
-        <v>0.244988567296386</v>
+        <v>0.2249012413387041</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N34">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O34">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P34">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q34">
-        <v>2532.566898527453</v>
+        <v>1949.841523172389</v>
       </c>
       <c r="R34">
-        <v>22793.10208674708</v>
+        <v>17548.5737085515</v>
       </c>
       <c r="S34">
-        <v>0.0683852437131941</v>
+        <v>0.04458685286571159</v>
       </c>
       <c r="T34">
-        <v>0.07653943122261318</v>
+        <v>0.05169686206671353</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>31.58644433333333</v>
+        <v>32.75075733333333</v>
       </c>
       <c r="H35">
-        <v>94.75933299999998</v>
+        <v>98.25227199999999</v>
       </c>
       <c r="I35">
-        <v>0.2304590637020015</v>
+        <v>0.2070370676589277</v>
       </c>
       <c r="J35">
-        <v>0.244988567296386</v>
+        <v>0.2249012413387041</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N35">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O35">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P35">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q35">
-        <v>812.0419361572713</v>
+        <v>1040.499224157216</v>
       </c>
       <c r="R35">
-        <v>4872.251616943628</v>
+        <v>6242.995344943296</v>
       </c>
       <c r="S35">
-        <v>0.02192703606042453</v>
+        <v>0.02379300330977883</v>
       </c>
       <c r="T35">
-        <v>0.01636106248789868</v>
+        <v>0.01839142454485597</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>31.58644433333333</v>
+        <v>32.75075733333333</v>
       </c>
       <c r="H36">
-        <v>94.75933299999998</v>
+        <v>98.25227199999999</v>
       </c>
       <c r="I36">
-        <v>0.2304590637020015</v>
+        <v>0.2070370676589277</v>
       </c>
       <c r="J36">
-        <v>0.244988567296386</v>
+        <v>0.2249012413387041</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N36">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O36">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P36">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q36">
-        <v>370.3830252899986</v>
+        <v>1030.518441776802</v>
       </c>
       <c r="R36">
-        <v>3333.447227609987</v>
+        <v>9274.665975991216</v>
       </c>
       <c r="S36">
-        <v>0.01000121002387496</v>
+        <v>0.02356477364588483</v>
       </c>
       <c r="T36">
-        <v>0.01119374422317948</v>
+        <v>0.02732251268044709</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>31.58644433333333</v>
+        <v>32.75075733333333</v>
       </c>
       <c r="H37">
-        <v>94.75933299999998</v>
+        <v>98.25227199999999</v>
       </c>
       <c r="I37">
-        <v>0.2304590637020015</v>
+        <v>0.2070370676589277</v>
       </c>
       <c r="J37">
-        <v>0.244988567296386</v>
+        <v>0.2249012413387041</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N37">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O37">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P37">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q37">
-        <v>2506.241723996206</v>
+        <v>2451.406380598647</v>
       </c>
       <c r="R37">
-        <v>22556.17551596585</v>
+        <v>22062.65742538782</v>
       </c>
       <c r="S37">
-        <v>0.06767440228303938</v>
+        <v>0.05605609189611817</v>
       </c>
       <c r="T37">
-        <v>0.07574382977704849</v>
+        <v>0.0649950347354795</v>
       </c>
     </row>
   </sheetData>
